--- a/results/mp/logistic/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
+++ b/results/mp/logistic/corona/confidence/84/stop-words-0.5/avg_0.002_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="104">
   <si>
     <t>anchor score</t>
   </si>
@@ -40,66 +40,72 @@
     <t>name</t>
   </si>
   <si>
+    <t>kill</t>
+  </si>
+  <si>
     <t>crisis</t>
   </si>
   <si>
-    <t>kill</t>
+    <t>crude</t>
   </si>
   <si>
     <t>forced</t>
   </si>
   <si>
+    <t>die</t>
+  </si>
+  <si>
+    <t>hell</t>
+  </si>
+  <si>
+    <t>warning</t>
+  </si>
+  <si>
+    <t>fraud</t>
+  </si>
+  <si>
+    <t>collapse</t>
+  </si>
+  <si>
+    <t>fears</t>
+  </si>
+  <si>
+    <t>died</t>
+  </si>
+  <si>
+    <t>sc</t>
+  </si>
+  <si>
+    <t>drop</t>
+  </si>
+  <si>
+    <t>panic</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>died</t>
-  </si>
-  <si>
-    <t>crude</t>
-  </si>
-  <si>
-    <t>fraud</t>
-  </si>
-  <si>
-    <t>collapse</t>
-  </si>
-  <si>
-    <t>warning</t>
-  </si>
-  <si>
-    <t>die</t>
-  </si>
-  <si>
-    <t>sc</t>
-  </si>
-  <si>
-    <t>panic</t>
-  </si>
-  <si>
-    <t>drop</t>
-  </si>
-  <si>
     <t>emergency</t>
   </si>
   <si>
+    <t>cut</t>
+  </si>
+  <si>
     <t>avoid</t>
   </si>
   <si>
+    <t>low</t>
+  </si>
+  <si>
     <t>lower</t>
   </si>
   <si>
-    <t>fears</t>
-  </si>
-  <si>
-    <t>low</t>
+    <t>empty</t>
   </si>
   <si>
     <t>risk</t>
   </si>
   <si>
-    <t>fight</t>
-  </si>
-  <si>
     <t>stop</t>
   </si>
   <si>
@@ -112,6 +118,9 @@
     <t>co</t>
   </si>
   <si>
+    <t>prices</t>
+  </si>
+  <si>
     <t>19</t>
   </si>
   <si>
@@ -121,190 +130,202 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>wow</t>
+  </si>
+  <si>
     <t>free</t>
   </si>
   <si>
-    <t>love</t>
+    <t>friend</t>
+  </si>
+  <si>
+    <t>happy</t>
   </si>
   <si>
     <t>best</t>
   </si>
   <si>
-    <t>friend</t>
-  </si>
-  <si>
-    <t>wow</t>
+    <t>great</t>
+  </si>
+  <si>
+    <t>amazing</t>
   </si>
   <si>
     <t>hand</t>
   </si>
   <si>
-    <t>happy</t>
-  </si>
-  <si>
-    <t>great</t>
+    <t>sharing</t>
+  </si>
+  <si>
+    <t>support</t>
+  </si>
+  <si>
+    <t>good</t>
+  </si>
+  <si>
+    <t>positive</t>
+  </si>
+  <si>
+    <t>fresh</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
+    <t>confidence</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>heroes</t>
+  </si>
+  <si>
+    <t>join</t>
+  </si>
+  <si>
+    <t>toronto</t>
+  </si>
+  <si>
+    <t>strong</t>
+  </si>
+  <si>
+    <t>true</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>save</t>
+  </si>
+  <si>
+    <t>wish</t>
+  </si>
+  <si>
+    <t>ready</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>amazing</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>wish</t>
-  </si>
-  <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>confidence</t>
-  </si>
-  <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>support</t>
-  </si>
-  <si>
-    <t>strong</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>fresh</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>friends</t>
-  </si>
-  <si>
     <t>better</t>
   </si>
   <si>
-    <t>join</t>
-  </si>
-  <si>
-    <t>nice</t>
-  </si>
-  <si>
-    <t>true</t>
-  </si>
-  <si>
-    <t>interesting</t>
+    <t>gt</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>heroes</t>
+    <t>like</t>
+  </si>
+  <si>
+    <t>super</t>
+  </si>
+  <si>
+    <t>boost</t>
+  </si>
+  <si>
+    <t>help</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
+    <t>hope</t>
   </si>
   <si>
     <t>ensure</t>
   </si>
   <si>
-    <t>save</t>
-  </si>
-  <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>gt</t>
-  </si>
-  <si>
-    <t>like</t>
+    <t>giving</t>
+  </si>
+  <si>
+    <t>care</t>
+  </si>
+  <si>
+    <t>healthy</t>
   </si>
   <si>
     <t>well</t>
   </si>
   <si>
-    <t>hope</t>
-  </si>
-  <si>
-    <t>funny</t>
-  </si>
-  <si>
-    <t>help</t>
-  </si>
-  <si>
     <t>god</t>
   </si>
   <si>
     <t>dear</t>
   </si>
   <si>
-    <t>ready</t>
-  </si>
-  <si>
     <t>share</t>
   </si>
   <si>
-    <t>giving</t>
-  </si>
-  <si>
-    <t>care</t>
+    <t>credit</t>
   </si>
   <si>
     <t>safety</t>
   </si>
   <si>
-    <t>healthy</t>
+    <t>important</t>
+  </si>
+  <si>
+    <t>increase</t>
+  </si>
+  <si>
+    <t>alert</t>
   </si>
   <si>
     <t>protect</t>
   </si>
   <si>
-    <t>important</t>
-  </si>
-  <si>
-    <t>alert</t>
-  </si>
-  <si>
-    <t>increase</t>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>helping</t>
+  </si>
+  <si>
+    <t>increased</t>
   </si>
   <si>
     <t>data</t>
   </si>
   <si>
-    <t>helping</t>
-  </si>
-  <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>give</t>
   </si>
   <si>
-    <t>want</t>
+    <t>check</t>
+  </si>
+  <si>
+    <t>employees</t>
   </si>
   <si>
     <t>keep</t>
   </si>
   <si>
-    <t>check</t>
-  </si>
-  <si>
-    <t>day</t>
+    <t>shopping</t>
   </si>
   <si>
     <t>stay</t>
   </si>
   <si>
-    <t>shopping</t>
+    <t>consumer</t>
   </si>
   <si>
     <t>grocery</t>
   </si>
   <si>
     <t>store</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
 </sst>
 </file>
@@ -662,7 +683,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q67"/>
+  <dimension ref="A1:Q71"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -670,10 +691,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="J1" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -731,13 +752,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.7534246575342466</v>
+        <v>0.7894736842105263</v>
       </c>
       <c r="C3">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="D3">
-        <v>220</v>
+        <v>15</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -749,19 +770,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>72</v>
+        <v>4</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="K3">
-        <v>0.9333333333333333</v>
+        <v>0.9565217391304348</v>
       </c>
       <c r="L3">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="M3">
-        <v>112</v>
+        <v>44</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -773,7 +794,7 @@
         <v>0</v>
       </c>
       <c r="Q3">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -781,38 +802,38 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.7368421052631579</v>
+        <v>0.7465753424657534</v>
       </c>
       <c r="C4">
+        <v>218</v>
+      </c>
+      <c r="D4">
+        <v>218</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="b">
+        <v>0</v>
+      </c>
+      <c r="H4">
+        <v>74</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="K4">
+        <v>0.9333333333333333</v>
+      </c>
+      <c r="L4">
         <v>14</v>
       </c>
-      <c r="D4">
+      <c r="M4">
         <v>14</v>
       </c>
-      <c r="E4">
-        <v>0</v>
-      </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4" t="b">
-        <v>0</v>
-      </c>
-      <c r="H4">
-        <v>5</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="K4">
-        <v>0.9130434782608695</v>
-      </c>
-      <c r="L4">
-        <v>42</v>
-      </c>
-      <c r="M4">
-        <v>42</v>
-      </c>
       <c r="N4">
         <v>1</v>
       </c>
@@ -823,7 +844,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -831,13 +852,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7241379310344828</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="C5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="D5">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -849,19 +870,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="K5">
-        <v>0.8983050847457628</v>
+        <v>0.925</v>
       </c>
       <c r="L5">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="M5">
-        <v>53</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -873,7 +894,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>6</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -881,13 +902,13 @@
         <v>11</v>
       </c>
       <c r="B6">
-        <v>0.6578947368421053</v>
+        <v>0.6896551724137931</v>
       </c>
       <c r="C6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="D6">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>0</v>
@@ -899,10 +920,10 @@
         <v>0</v>
       </c>
       <c r="H6">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="K6">
         <v>0.8947368421052632</v>
@@ -931,13 +952,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6538461538461539</v>
+        <v>0.6756756756756757</v>
       </c>
       <c r="C7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="D7">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -949,19 +970,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="K7">
-        <v>0.8666666666666667</v>
+        <v>0.8846153846153846</v>
       </c>
       <c r="L7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="M7">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -973,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -981,13 +1002,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5882352941176471</v>
+        <v>0.6521739130434783</v>
       </c>
       <c r="C8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="D8">
-        <v>20</v>
+        <v>15</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -999,19 +1020,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="K8">
-        <v>0.8537859007832899</v>
+        <v>0.8813559322033898</v>
       </c>
       <c r="L8">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="M8">
-        <v>327</v>
+        <v>52</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -1023,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>56</v>
+        <v>7</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1031,13 +1052,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5833333333333334</v>
+        <v>0.64</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -1049,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="K9">
-        <v>0.8461538461538461</v>
+        <v>0.875</v>
       </c>
       <c r="L9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="M9">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1073,7 +1094,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1081,13 +1102,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5666666666666667</v>
+        <v>0.6388888888888888</v>
       </c>
       <c r="C10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="D10">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1102,16 +1123,16 @@
         <v>13</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="K10">
-        <v>0.8392857142857143</v>
+        <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="M10">
-        <v>94</v>
+        <v>15</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1123,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1131,13 +1152,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.5600000000000001</v>
+        <v>0.6333333333333333</v>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="D11">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1152,16 +1173,16 @@
         <v>11</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="K11">
-        <v>0.8333333333333334</v>
+        <v>0.8198433420365535</v>
       </c>
       <c r="L11">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="M11">
-        <v>30</v>
+        <v>314</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1173,7 +1194,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1181,13 +1202,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.5405405405405406</v>
+        <v>0.5490196078431373</v>
       </c>
       <c r="C12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="D12">
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1199,19 +1220,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="K12">
-        <v>0.8333333333333334</v>
+        <v>0.8125</v>
       </c>
       <c r="L12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="M12">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1231,38 +1252,38 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.455026455026455</v>
+        <v>0.5384615384615384</v>
       </c>
       <c r="C13">
+        <v>14</v>
+      </c>
+      <c r="D13">
+        <v>14</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="b">
+        <v>0</v>
+      </c>
+      <c r="H13">
+        <v>12</v>
+      </c>
+      <c r="J13" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="K13">
+        <v>0.8113207547169812</v>
+      </c>
+      <c r="L13">
         <v>86</v>
       </c>
-      <c r="D13">
+      <c r="M13">
         <v>86</v>
       </c>
-      <c r="E13">
-        <v>0</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13" t="b">
-        <v>0</v>
-      </c>
-      <c r="H13">
-        <v>103</v>
-      </c>
-      <c r="J13" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="K13">
-        <v>0.8048780487804879</v>
-      </c>
-      <c r="L13">
-        <v>66</v>
-      </c>
-      <c r="M13">
-        <v>66</v>
-      </c>
       <c r="N13">
         <v>1</v>
       </c>
@@ -1273,7 +1294,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>16</v>
+        <v>20</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1281,13 +1302,13 @@
         <v>19</v>
       </c>
       <c r="B14">
-        <v>0.4515503875968992</v>
+        <v>0.5079365079365079</v>
       </c>
       <c r="C14">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="D14">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="E14">
         <v>0</v>
@@ -1299,19 +1320,19 @@
         <v>0</v>
       </c>
       <c r="H14">
-        <v>283</v>
+        <v>93</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="K14">
-        <v>0.7894736842105263</v>
+        <v>0.80625</v>
       </c>
       <c r="L14">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="M14">
-        <v>15</v>
+        <v>129</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1323,7 +1344,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>4</v>
+        <v>31</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1331,13 +1352,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3389830508474576</v>
+        <v>0.4576271186440678</v>
       </c>
       <c r="C15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="D15">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1349,19 +1370,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="K15">
-        <v>0.7816901408450704</v>
+        <v>0.7931034482758621</v>
       </c>
       <c r="L15">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="M15">
-        <v>111</v>
+        <v>46</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1373,7 +1394,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>31</v>
+        <v>12</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1381,13 +1402,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.3333333333333333</v>
+        <v>0.439922480620155</v>
       </c>
       <c r="C16">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="D16">
-        <v>25</v>
+        <v>227</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1399,19 +1420,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>50</v>
+        <v>289</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="K16">
-        <v>0.7777777777777778</v>
+        <v>0.7916666666666666</v>
       </c>
       <c r="L16">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="M16">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1423,7 +1444,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>8</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1431,13 +1452,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.3272727272727273</v>
+        <v>0.4210526315789473</v>
       </c>
       <c r="C17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D17">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1449,19 +1470,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>37</v>
+        <v>22</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="K17">
-        <v>0.7758620689655172</v>
+        <v>0.7878787878787878</v>
       </c>
       <c r="L17">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="M17">
-        <v>45</v>
+        <v>26</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1473,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>13</v>
+        <v>7</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1481,13 +1502,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.3214285714285715</v>
+        <v>0.3066666666666666</v>
       </c>
       <c r="C18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="D18">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1499,19 +1520,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="K18">
-        <v>0.7735849056603774</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="L18">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="M18">
-        <v>82</v>
+        <v>28</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1523,7 +1544,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>24</v>
+        <v>8</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1531,7 +1552,7 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.3137254901960784</v>
+        <v>0.2909090909090909</v>
       </c>
       <c r="C19">
         <v>16</v>
@@ -1549,19 +1570,19 @@
         <v>0</v>
       </c>
       <c r="H19">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J19" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="K19">
-        <v>0.7727272727272727</v>
+        <v>0.7734375</v>
       </c>
       <c r="L19">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="M19">
-        <v>17</v>
+        <v>99</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1573,7 +1594,7 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>5</v>
+        <v>29</v>
       </c>
     </row>
     <row r="20" spans="1:17">
@@ -1581,37 +1602,37 @@
         <v>25</v>
       </c>
       <c r="B20">
-        <v>0.2684563758389262</v>
+        <v>0.2727272727272727</v>
       </c>
       <c r="C20">
+        <v>15</v>
+      </c>
+      <c r="D20">
+        <v>15</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
         <v>40</v>
       </c>
-      <c r="D20">
-        <v>40</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="b">
-        <v>0</v>
-      </c>
-      <c r="H20">
-        <v>109</v>
-      </c>
       <c r="J20" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="K20">
-        <v>0.765625</v>
+        <v>0.7682926829268293</v>
       </c>
       <c r="L20">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="M20">
-        <v>98</v>
+        <v>63</v>
       </c>
       <c r="N20">
         <v>1</v>
@@ -1623,7 +1644,7 @@
         <v>0</v>
       </c>
       <c r="Q20">
-        <v>30</v>
+        <v>19</v>
       </c>
     </row>
     <row r="21" spans="1:17">
@@ -1631,13 +1652,13 @@
         <v>26</v>
       </c>
       <c r="B21">
-        <v>0.1688311688311688</v>
+        <v>0.2684563758389262</v>
       </c>
       <c r="C21">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="D21">
-        <v>13</v>
+        <v>40</v>
       </c>
       <c r="E21">
         <v>0</v>
@@ -1649,19 +1670,19 @@
         <v>0</v>
       </c>
       <c r="H21">
-        <v>64</v>
+        <v>109</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="K21">
-        <v>0.75</v>
+        <v>0.7535211267605634</v>
       </c>
       <c r="L21">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="M21">
-        <v>36</v>
+        <v>107</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1673,7 +1694,7 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:17">
@@ -1681,7 +1702,7 @@
         <v>27</v>
       </c>
       <c r="B22">
-        <v>0.1625</v>
+        <v>0.2321428571428572</v>
       </c>
       <c r="C22">
         <v>13</v>
@@ -1699,19 +1720,19 @@
         <v>0</v>
       </c>
       <c r="H22">
-        <v>67</v>
+        <v>43</v>
       </c>
       <c r="J22" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="K22">
-        <v>0.75</v>
+        <v>0.7446808510638298</v>
       </c>
       <c r="L22">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="M22">
-        <v>120</v>
+        <v>35</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1723,7 +1744,7 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>40</v>
+        <v>12</v>
       </c>
     </row>
     <row r="23" spans="1:17">
@@ -1731,13 +1752,13 @@
         <v>28</v>
       </c>
       <c r="B23">
-        <v>0.1468253968253968</v>
+        <v>0.2</v>
       </c>
       <c r="C23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D23">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1749,19 +1770,19 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>215</v>
+        <v>72</v>
       </c>
       <c r="J23" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="K23">
-        <v>0.75</v>
+        <v>0.7441860465116279</v>
       </c>
       <c r="L23">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="M23">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="N23">
         <v>1</v>
@@ -1773,7 +1794,7 @@
         <v>0</v>
       </c>
       <c r="Q23">
-        <v>7</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:17">
@@ -1781,13 +1802,13 @@
         <v>29</v>
       </c>
       <c r="B24">
-        <v>0.08579088471849866</v>
+        <v>0.1688311688311688</v>
       </c>
       <c r="C24">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="D24">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="E24">
         <v>0</v>
@@ -1799,19 +1820,19 @@
         <v>0</v>
       </c>
       <c r="H24">
-        <v>341</v>
+        <v>64</v>
       </c>
       <c r="J24" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="K24">
-        <v>0.746031746031746</v>
+        <v>0.7368421052631579</v>
       </c>
       <c r="L24">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="M24">
-        <v>47</v>
+        <v>14</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1823,7 +1844,7 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>16</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:17">
@@ -1831,13 +1852,13 @@
         <v>30</v>
       </c>
       <c r="B25">
-        <v>0.07666666666666666</v>
+        <v>0.1468253968253968</v>
       </c>
       <c r="C25">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="D25">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="E25">
         <v>0</v>
@@ -1849,19 +1870,19 @@
         <v>0</v>
       </c>
       <c r="H25">
-        <v>277</v>
+        <v>215</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="K25">
-        <v>0.7441860465116279</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="M25">
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1873,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>11</v>
+        <v>6</v>
       </c>
     </row>
     <row r="26" spans="1:17">
@@ -1881,37 +1902,37 @@
         <v>31</v>
       </c>
       <c r="B26">
-        <v>0.01842275371687136</v>
+        <v>0.08333333333333333</v>
       </c>
       <c r="C26">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="D26">
-        <v>70</v>
+        <v>32</v>
       </c>
       <c r="E26">
-        <v>0.19</v>
+        <v>0.03</v>
       </c>
       <c r="F26">
-        <v>0.8100000000000001</v>
+        <v>0.97</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26">
-        <v>3037</v>
+        <v>341</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="K26">
-        <v>0.7407407407407407</v>
+        <v>0.7272727272727273</v>
       </c>
       <c r="L26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="M26">
-        <v>20</v>
+        <v>16</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1923,7 +1944,7 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>7</v>
+        <v>6</v>
       </c>
     </row>
     <row r="27" spans="1:17">
@@ -1931,37 +1952,37 @@
         <v>32</v>
       </c>
       <c r="B27">
-        <v>0.01228733459357278</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="C27">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="D27">
-        <v>53</v>
+        <v>21</v>
       </c>
       <c r="E27">
-        <v>0.51</v>
+        <v>0</v>
       </c>
       <c r="F27">
-        <v>0.49</v>
+        <v>1</v>
       </c>
       <c r="G27" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H27">
-        <v>2090</v>
+        <v>279</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="K27">
-        <v>0.7272727272727273</v>
+        <v>0.7142857142857143</v>
       </c>
       <c r="L27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="M27">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1973,7 +1994,7 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>6</v>
+        <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:17">
@@ -1981,31 +2002,31 @@
         <v>33</v>
       </c>
       <c r="B28">
-        <v>0.006984126984126984</v>
+        <v>0.01685575364667747</v>
       </c>
       <c r="C28">
-        <v>22</v>
+        <v>52</v>
       </c>
       <c r="D28">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E28">
+        <v>0.3</v>
+      </c>
+      <c r="F28">
         <v>0.7</v>
       </c>
-      <c r="F28">
-        <v>0.3</v>
-      </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28">
-        <v>3128</v>
+        <v>3033</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="K28">
-        <v>0.7272727272727273</v>
+        <v>0.6857142857142857</v>
       </c>
       <c r="L28">
         <v>24</v>
@@ -2023,73 +2044,145 @@
         <v>0</v>
       </c>
       <c r="Q28">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17">
+      <c r="A29" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B29">
+        <v>0.01296456352636128</v>
+      </c>
+      <c r="C29">
+        <v>15</v>
+      </c>
+      <c r="D29">
+        <v>19</v>
+      </c>
+      <c r="E29">
+        <v>0.21</v>
+      </c>
+      <c r="F29">
+        <v>0.79</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29">
+        <v>1142</v>
+      </c>
+      <c r="J29" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="K29">
+        <v>0.6842105263157895</v>
+      </c>
+      <c r="L29">
+        <v>13</v>
+      </c>
+      <c r="M29">
+        <v>13</v>
+      </c>
+      <c r="N29">
+        <v>1</v>
+      </c>
+      <c r="O29">
+        <v>0</v>
+      </c>
+      <c r="P29" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17">
+      <c r="A30" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B30">
+        <v>0.01136363636363636</v>
+      </c>
+      <c r="C30">
+        <v>24</v>
+      </c>
+      <c r="D30">
+        <v>55</v>
+      </c>
+      <c r="E30">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="F30">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30">
+        <v>2088</v>
+      </c>
+      <c r="J30" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="K30">
+        <v>0.6785714285714286</v>
+      </c>
+      <c r="L30">
+        <v>19</v>
+      </c>
+      <c r="M30">
+        <v>19</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30">
+        <v>0</v>
+      </c>
+      <c r="P30" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q30">
         <v>9</v>
       </c>
     </row>
-    <row r="29" spans="1:17">
-      <c r="J29" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="K29">
-        <v>0.72</v>
-      </c>
-      <c r="L29">
+    <row r="31" spans="1:17">
+      <c r="A31" s="1" t="s">
         <v>36</v>
       </c>
-      <c r="M29">
-        <v>36</v>
-      </c>
-      <c r="N29">
-        <v>1</v>
-      </c>
-      <c r="O29">
-        <v>0</v>
-      </c>
-      <c r="P29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q29">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="30" spans="1:17">
-      <c r="J30" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="K30">
-        <v>0.7021276595744681</v>
-      </c>
-      <c r="L30">
-        <v>33</v>
-      </c>
-      <c r="M30">
-        <v>33</v>
-      </c>
-      <c r="N30">
-        <v>1</v>
-      </c>
-      <c r="O30">
-        <v>0</v>
-      </c>
-      <c r="P30" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q30">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="31" spans="1:17">
+      <c r="B31">
+        <v>0.005745292052345995</v>
+      </c>
+      <c r="C31">
+        <v>18</v>
+      </c>
+      <c r="D31">
+        <v>86</v>
+      </c>
+      <c r="E31">
+        <v>0.79</v>
+      </c>
+      <c r="F31">
+        <v>0.21</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31">
+        <v>3115</v>
+      </c>
       <c r="J31" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="K31">
         <v>0.6666666666666666</v>
       </c>
       <c r="L31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="M31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -2101,21 +2194,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>8</v>
+        <v>9</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="K32">
-        <v>0.6571428571428571</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="L32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M32">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -2132,16 +2225,16 @@
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="K33">
-        <v>0.6401673640167364</v>
+        <v>0.6507936507936508</v>
       </c>
       <c r="L33">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="M33">
-        <v>153</v>
+        <v>41</v>
       </c>
       <c r="N33">
         <v>1</v>
@@ -2153,21 +2246,21 @@
         <v>0</v>
       </c>
       <c r="Q33">
-        <v>86</v>
+        <v>22</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="K34">
-        <v>0.625</v>
+        <v>0.65</v>
       </c>
       <c r="L34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="M34">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -2179,21 +2272,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="K35">
-        <v>0.6235294117647059</v>
+        <v>0.64</v>
       </c>
       <c r="L35">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="M35">
-        <v>212</v>
+        <v>32</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -2205,21 +2298,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>128</v>
+        <v>18</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="K36">
-        <v>0.6170212765957447</v>
+        <v>0.638235294117647</v>
       </c>
       <c r="L36">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="M36">
-        <v>58</v>
+        <v>217</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -2231,21 +2324,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>36</v>
+        <v>123</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K37">
-        <v>0.6153846153846154</v>
+        <v>0.625</v>
       </c>
       <c r="L37">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="M37">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -2257,12 +2350,12 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>25</v>
+        <v>9</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="K38">
         <v>0.6086956521739131</v>
@@ -2288,68 +2381,68 @@
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="K39">
-        <v>0.5884353741496599</v>
+        <v>0.6033898305084746</v>
       </c>
       <c r="L39">
-        <v>173</v>
+        <v>178</v>
       </c>
       <c r="M39">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="N39">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O39">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P39" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q39">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="K40">
-        <v>0.5833333333333334</v>
+        <v>0.592436974789916</v>
       </c>
       <c r="L40">
-        <v>14</v>
+        <v>141</v>
       </c>
       <c r="M40">
-        <v>14</v>
+        <v>142</v>
       </c>
       <c r="N40">
-        <v>1</v>
+        <v>0.99</v>
       </c>
       <c r="O40">
-        <v>0</v>
+        <v>0.01000000000000001</v>
       </c>
       <c r="P40" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q40">
-        <v>10</v>
+        <v>97</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="K41">
-        <v>0.5714285714285714</v>
+        <v>0.5846153846153846</v>
       </c>
       <c r="L41">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="M41">
-        <v>16</v>
+        <v>38</v>
       </c>
       <c r="N41">
         <v>1</v>
@@ -2361,21 +2454,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>12</v>
+        <v>27</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="K42">
-        <v>0.5714285714285714</v>
+        <v>0.5833333333333334</v>
       </c>
       <c r="L42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="M42">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2387,21 +2480,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>12</v>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="K43">
-        <v>0.5571428571428572</v>
+        <v>0.5757575757575758</v>
       </c>
       <c r="L43">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="M43">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2413,21 +2506,21 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>31</v>
+        <v>14</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="K44">
-        <v>0.5454545454545454</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L44">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="M44">
-        <v>18</v>
+        <v>50</v>
       </c>
       <c r="N44">
         <v>1</v>
@@ -2439,21 +2532,21 @@
         <v>0</v>
       </c>
       <c r="Q44">
-        <v>15</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="K45">
-        <v>0.5393258426966292</v>
+        <v>0.5555555555555556</v>
       </c>
       <c r="L45">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="M45">
-        <v>48</v>
+        <v>15</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2465,21 +2558,21 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>41</v>
+        <v>12</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="K46">
-        <v>0.5294117647058824</v>
+        <v>0.5531914893617021</v>
       </c>
       <c r="L46">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="M46">
-        <v>27</v>
+        <v>52</v>
       </c>
       <c r="N46">
         <v>1</v>
@@ -2491,15 +2584,15 @@
         <v>0</v>
       </c>
       <c r="Q46">
-        <v>24</v>
+        <v>42</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="K47">
-        <v>0.4814814814814815</v>
+        <v>0.5416666666666666</v>
       </c>
       <c r="L47">
         <v>13</v>
@@ -2517,47 +2610,47 @@
         <v>0</v>
       </c>
       <c r="Q47">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="K48">
-        <v>0.4366197183098591</v>
+        <v>0.5357142857142857</v>
       </c>
       <c r="L48">
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="M48">
-        <v>33</v>
+        <v>15</v>
       </c>
       <c r="N48">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O48">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q48">
-        <v>40</v>
+        <v>13</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="K49">
-        <v>0.4222222222222222</v>
+        <v>0.5285714285714286</v>
       </c>
       <c r="L49">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="M49">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="N49">
         <v>1</v>
@@ -2569,47 +2662,47 @@
         <v>0</v>
       </c>
       <c r="Q49">
-        <v>26</v>
+        <v>33</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="K50">
-        <v>0.3902439024390244</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L50">
         <v>16</v>
       </c>
       <c r="M50">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>25</v>
+        <v>18</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="K51">
-        <v>0.3717948717948718</v>
+        <v>0.4705882352941176</v>
       </c>
       <c r="L51">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="M51">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2621,21 +2714,21 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>49</v>
+        <v>27</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="K52">
-        <v>0.2982456140350877</v>
+        <v>0.4444444444444444</v>
       </c>
       <c r="L52">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="M52">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="N52">
         <v>1</v>
@@ -2647,21 +2740,21 @@
         <v>0</v>
       </c>
       <c r="Q52">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="K53">
-        <v>0.288135593220339</v>
+        <v>0.4102564102564102</v>
       </c>
       <c r="L53">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="M53">
-        <v>17</v>
+        <v>32</v>
       </c>
       <c r="N53">
         <v>1</v>
@@ -2673,21 +2766,21 @@
         <v>0</v>
       </c>
       <c r="Q53">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="K54">
-        <v>0.28125</v>
+        <v>0.4047619047619048</v>
       </c>
       <c r="L54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="M54">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N54">
         <v>1</v>
@@ -2699,21 +2792,21 @@
         <v>0</v>
       </c>
       <c r="Q54">
-        <v>46</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="K55">
-        <v>0.2459016393442623</v>
+        <v>0.3013698630136986</v>
       </c>
       <c r="L55">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="M55">
-        <v>15</v>
+        <v>22</v>
       </c>
       <c r="N55">
         <v>1</v>
@@ -2725,21 +2818,21 @@
         <v>0</v>
       </c>
       <c r="Q55">
-        <v>46</v>
+        <v>51</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="K56">
-        <v>0.1368421052631579</v>
+        <v>0.265625</v>
       </c>
       <c r="L56">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="M56">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="N56">
         <v>1</v>
@@ -2751,99 +2844,99 @@
         <v>0</v>
       </c>
       <c r="Q56">
-        <v>82</v>
+        <v>47</v>
       </c>
     </row>
     <row r="57" spans="10:17">
       <c r="J57" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="K57">
-        <v>0.1300813008130081</v>
+        <v>0.2542372881355932</v>
       </c>
       <c r="L57">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="M57">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="N57">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O57">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P57" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q57">
-        <v>107</v>
+        <v>44</v>
       </c>
     </row>
     <row r="58" spans="10:17">
       <c r="J58" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="K58">
-        <v>0.1203703703703704</v>
+        <v>0.25</v>
       </c>
       <c r="L58">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="M58">
-        <v>14</v>
+        <v>18</v>
       </c>
       <c r="N58">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O58">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P58" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q58">
-        <v>95</v>
+        <v>54</v>
       </c>
     </row>
     <row r="59" spans="10:17">
       <c r="J59" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="K59">
-        <v>0.09154929577464789</v>
+        <v>0.2456140350877193</v>
       </c>
       <c r="L59">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="M59">
         <v>14</v>
       </c>
       <c r="N59">
-        <v>0.93</v>
+        <v>1</v>
       </c>
       <c r="O59">
-        <v>0.06999999999999995</v>
+        <v>0</v>
       </c>
       <c r="P59" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q59">
-        <v>129</v>
+        <v>43</v>
       </c>
     </row>
     <row r="60" spans="10:17">
       <c r="J60" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="K60">
-        <v>0.08116883116883117</v>
+        <v>0.2295081967213115</v>
       </c>
       <c r="L60">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="M60">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="N60">
         <v>1</v>
@@ -2855,189 +2948,293 @@
         <v>0</v>
       </c>
       <c r="Q60">
-        <v>283</v>
+        <v>47</v>
       </c>
     </row>
     <row r="61" spans="10:17">
       <c r="J61" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="K61">
-        <v>0.04347826086956522</v>
+        <v>0.1509433962264151</v>
       </c>
       <c r="L61">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="M61">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N61">
-        <v>0.9</v>
+        <v>0.84</v>
       </c>
       <c r="O61">
-        <v>0.09999999999999998</v>
+        <v>0.16</v>
       </c>
       <c r="P61" t="b">
         <v>1</v>
       </c>
       <c r="Q61">
-        <v>396</v>
+        <v>90</v>
       </c>
     </row>
     <row r="62" spans="10:17">
       <c r="J62" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="K62">
-        <v>0.01779755283648498</v>
+        <v>0.1150442477876106</v>
       </c>
       <c r="L62">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="M62">
-        <v>18</v>
+        <v>13</v>
       </c>
       <c r="N62">
-        <v>0.89</v>
+        <v>1</v>
       </c>
       <c r="O62">
-        <v>0.11</v>
+        <v>0</v>
       </c>
       <c r="P62" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q62">
-        <v>883</v>
+        <v>100</v>
       </c>
     </row>
     <row r="63" spans="10:17">
       <c r="J63" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="K63">
-        <v>0.0160427807486631</v>
+        <v>0.1129032258064516</v>
       </c>
       <c r="L63">
-        <v>51</v>
+        <v>14</v>
       </c>
       <c r="M63">
-        <v>73</v>
+        <v>14</v>
       </c>
       <c r="N63">
-        <v>0.7</v>
+        <v>1</v>
       </c>
       <c r="O63">
-        <v>0.3</v>
+        <v>0</v>
       </c>
       <c r="P63" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q63">
-        <v>3128</v>
+        <v>110</v>
       </c>
     </row>
     <row r="64" spans="10:17">
       <c r="J64" s="1" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="K64">
-        <v>0.01567749160134379</v>
+        <v>0.04578313253012048</v>
       </c>
       <c r="L64">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="M64">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="N64">
-        <v>0.93</v>
+        <v>0.95</v>
       </c>
       <c r="O64">
-        <v>0.06999999999999995</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P64" t="b">
         <v>1</v>
       </c>
       <c r="Q64">
-        <v>879</v>
+        <v>396</v>
       </c>
     </row>
     <row r="65" spans="10:17">
       <c r="J65" s="1" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="K65">
-        <v>0.015625</v>
+        <v>0.04545454545454546</v>
       </c>
       <c r="L65">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="M65">
-        <v>23</v>
+        <v>14</v>
       </c>
       <c r="N65">
-        <v>0.65</v>
+        <v>1</v>
       </c>
       <c r="O65">
-        <v>0.35</v>
+        <v>0</v>
       </c>
       <c r="P65" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q65">
-        <v>945</v>
+        <v>294</v>
       </c>
     </row>
     <row r="66" spans="10:17">
       <c r="J66" s="1" t="s">
-        <v>32</v>
+        <v>101</v>
       </c>
       <c r="K66">
-        <v>0.01275389702409069</v>
+        <v>0.02173913043478261</v>
       </c>
       <c r="L66">
-        <v>27</v>
+        <v>14</v>
       </c>
       <c r="M66">
-        <v>53</v>
+        <v>20</v>
       </c>
       <c r="N66">
-        <v>0.51</v>
+        <v>0.7</v>
       </c>
       <c r="O66">
-        <v>0.49</v>
+        <v>0.3</v>
       </c>
       <c r="P66" t="b">
         <v>1</v>
       </c>
       <c r="Q66">
-        <v>2090</v>
+        <v>630</v>
       </c>
     </row>
     <row r="67" spans="10:17">
       <c r="J67" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="K67">
+        <v>0.02136349355953503</v>
+      </c>
+      <c r="L67">
+        <v>68</v>
+      </c>
+      <c r="M67">
+        <v>86</v>
+      </c>
+      <c r="N67">
+        <v>0.79</v>
+      </c>
+      <c r="O67">
+        <v>0.21</v>
+      </c>
+      <c r="P67" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q67">
+        <v>3115</v>
+      </c>
+    </row>
+    <row r="68" spans="10:17">
+      <c r="J68" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="K68">
+        <v>0.01775804661487236</v>
+      </c>
+      <c r="L68">
+        <v>16</v>
+      </c>
+      <c r="M68">
+        <v>16</v>
+      </c>
+      <c r="N68">
+        <v>1</v>
+      </c>
+      <c r="O68">
+        <v>0</v>
+      </c>
+      <c r="P68" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q68">
+        <v>885</v>
+      </c>
+    </row>
+    <row r="69" spans="10:17">
+      <c r="J69" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="K69">
+        <v>0.01569506726457399</v>
+      </c>
+      <c r="L69">
+        <v>14</v>
+      </c>
+      <c r="M69">
+        <v>16</v>
+      </c>
+      <c r="N69">
+        <v>0.88</v>
+      </c>
+      <c r="O69">
+        <v>0.12</v>
+      </c>
+      <c r="P69" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q69">
+        <v>878</v>
+      </c>
+    </row>
+    <row r="70" spans="10:17">
+      <c r="J70" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K70">
+        <v>0.0146295422369042</v>
+      </c>
+      <c r="L70">
         <v>31</v>
       </c>
-      <c r="K67">
-        <v>0.004262295081967214</v>
-      </c>
-      <c r="L67">
-        <v>13</v>
-      </c>
-      <c r="M67">
-        <v>70</v>
-      </c>
-      <c r="N67">
-        <v>0.19</v>
-      </c>
-      <c r="O67">
-        <v>0.8100000000000001</v>
-      </c>
-      <c r="P67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Q67">
-        <v>3037</v>
+      <c r="M70">
+        <v>55</v>
+      </c>
+      <c r="N70">
+        <v>0.5600000000000001</v>
+      </c>
+      <c r="O70">
+        <v>0.4399999999999999</v>
+      </c>
+      <c r="P70" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q70">
+        <v>2088</v>
+      </c>
+    </row>
+    <row r="71" spans="10:17">
+      <c r="J71" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="K71">
+        <v>0.007201309328968904</v>
+      </c>
+      <c r="L71">
+        <v>22</v>
+      </c>
+      <c r="M71">
+        <v>74</v>
+      </c>
+      <c r="N71">
+        <v>0.3</v>
+      </c>
+      <c r="O71">
+        <v>0.7</v>
+      </c>
+      <c r="P71" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q71">
+        <v>3033</v>
       </c>
     </row>
   </sheetData>
